--- a/output/fit_clients/fit_round_296.xlsx
+++ b/output/fit_clients/fit_round_296.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2222804314.881616</v>
+        <v>1864922241.252012</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06978973285737397</v>
+        <v>0.08408978794748904</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03456744967068259</v>
+        <v>0.03634697140101949</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1111402183.04302</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2234712233.476554</v>
+        <v>2205320428.72044</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1500792490544659</v>
+        <v>0.1547198046637833</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04758511490175491</v>
+        <v>0.0466309110547538</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1117356193.145829</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4130959276.352373</v>
+        <v>3607311902.030081</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1573777039574762</v>
+        <v>0.1244593780216873</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03646834418134941</v>
+        <v>0.02483268128006868</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>107</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2065479661.642154</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2782325216.795053</v>
+        <v>3106996820.089917</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1099954900571245</v>
+        <v>0.08509675122464187</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03710795471016246</v>
+        <v>0.03861564916209705</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1391162692.624217</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2782971346.816916</v>
+        <v>2664058878.931193</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1297062911289142</v>
+        <v>0.1244412690274216</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05419448296115657</v>
+        <v>0.05028492825881412</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>55</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1391485618.267625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2737857543.475513</v>
+        <v>2145982602.744474</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08192043444174181</v>
+        <v>0.09124365729348392</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03044949149824937</v>
+        <v>0.04678056332590769</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>93</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1368928761.874883</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3550394573.00321</v>
+        <v>2674089653.429679</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1330661804416341</v>
+        <v>0.1329694127263602</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03314617690117194</v>
+        <v>0.0230550671800077</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>94</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1775197400.279245</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1612479931.297663</v>
+        <v>1820418580.644702</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1878433555705366</v>
+        <v>0.1660761302604838</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02601686684346438</v>
+        <v>0.03184951225796524</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>806240046.0311683</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4079013149.449791</v>
+        <v>4104952398.417698</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2168075241129551</v>
+        <v>0.1505203342031907</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04642081914780254</v>
+        <v>0.03612359969915678</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>124</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2039506602.714974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3813315078.508252</v>
+        <v>3222947277.068748</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1893685313904987</v>
+        <v>0.1677940226152675</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04806872750598866</v>
+        <v>0.04754898877038232</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>122</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1906657538.884173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3134425710.348213</v>
+        <v>2313626409.687163</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1824544482010423</v>
+        <v>0.1344885399565626</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04759897394958265</v>
+        <v>0.04856761828412254</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>100</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1567212885.478766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4445599065.424841</v>
+        <v>3341060029.084331</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08628078715027186</v>
+        <v>0.07527525240421559</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03030932878813455</v>
+        <v>0.02849812691628367</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>99</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2222799565.013721</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2981444992.773245</v>
+        <v>2699018246.640724</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1215271871508099</v>
+        <v>0.1521754056797673</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03740539516515133</v>
+        <v>0.03041361138984351</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>95</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1490722532.169496</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1664414199.355309</v>
+        <v>1376893530.950617</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09790804648490012</v>
+        <v>0.0982354551225403</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03441365874290498</v>
+        <v>0.04412838073698314</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>832207222.4532279</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2680518022.114452</v>
+        <v>2765142200.240423</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09757909591098486</v>
+        <v>0.1045175504925707</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03639939914609244</v>
+        <v>0.05000976086404584</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>57</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1340259025.759635</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4931726910.371628</v>
+        <v>4143373010.399685</v>
       </c>
       <c r="F17" t="n">
-        <v>0.143986567011322</v>
+        <v>0.1626443717656041</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04458692860846953</v>
+        <v>0.04950308994285873</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>86</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2465863443.68433</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3092375748.259959</v>
+        <v>3186422907.150352</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1843105529713964</v>
+        <v>0.1711610291790733</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03230124339004603</v>
+        <v>0.03006151453218748</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>97</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1546187897.704148</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1036275621.668418</v>
+        <v>1361765290.798134</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1514199148437335</v>
+        <v>0.1296956696659038</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02585661236838512</v>
+        <v>0.01929907654588677</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>518137848.894008</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2764407801.374359</v>
+        <v>2211115111.048082</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1182678059501245</v>
+        <v>0.1057161989233138</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02089295330239097</v>
+        <v>0.03164287459920231</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1382203845.622478</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1736326534.178208</v>
+        <v>2000021852.861294</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06397936233239279</v>
+        <v>0.07210598631096665</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04557464034817905</v>
+        <v>0.03636283333243696</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>25</v>
-      </c>
-      <c r="J21" t="n">
-        <v>868163328.2814705</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3287318091.082008</v>
+        <v>2892619097.55541</v>
       </c>
       <c r="F22" t="n">
-        <v>0.101191606791353</v>
+        <v>0.1281362010521276</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04059993099338632</v>
+        <v>0.04175361568980377</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>81</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1643659089.86884</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1078792840.00744</v>
+        <v>1148252010.790014</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1349452692501093</v>
+        <v>0.1754516121055283</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04386451110042855</v>
+        <v>0.04229017782078737</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>539396476.9268453</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3807677127.247458</v>
+        <v>3903733801.569631</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1264561258144288</v>
+        <v>0.1299874281701311</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03259153710365308</v>
+        <v>0.03140696866427273</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>86</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1903838544.5567</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1087004743.094917</v>
+        <v>1153438021.344257</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09544614435784152</v>
+        <v>0.107950024651735</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03090092090733153</v>
+        <v>0.03059204685150711</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>543502415.5334734</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1211706581.768741</v>
+        <v>1429845086.714107</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1110840484305456</v>
+        <v>0.1000698322377174</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03713522387215813</v>
+        <v>0.028723778505272</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>605853314.8351891</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3604028987.776033</v>
+        <v>4531185653.045649</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1220155067795938</v>
+        <v>0.1573679104494642</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01796732143682769</v>
+        <v>0.01891353772592917</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1802014523.708598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3415194906.597686</v>
+        <v>2966326080.639412</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1351686462275751</v>
+        <v>0.1335186458792773</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04249844616578323</v>
+        <v>0.03924608819938746</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>98</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1707597500.568223</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4597499247.36634</v>
+        <v>4877806901.631529</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1463259656256945</v>
+        <v>0.1405135085988118</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04450501024265188</v>
+        <v>0.03654788294921009</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>131</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2298749599.135935</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1574006649.953534</v>
+        <v>1608258218.528257</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1058493898339891</v>
+        <v>0.1131797208828186</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03501023937015219</v>
+        <v>0.02641789188142835</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>787003313.8951797</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1263379837.851739</v>
+        <v>1019456842.627057</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08172385556621689</v>
+        <v>0.07317533363580694</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0407632566451956</v>
+        <v>0.03639964896480802</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>631689855.4615469</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1286074051.773955</v>
+        <v>1462607567.496938</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08545619604550224</v>
+        <v>0.1052273541873996</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03846212336174121</v>
+        <v>0.03006947826846879</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>643037049.928576</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2194765018.099399</v>
+        <v>2283716917.833761</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1605881260107525</v>
+        <v>0.149404038716453</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04373882712023095</v>
+        <v>0.04875616117697903</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>88</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1097382573.27602</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1131917137.970421</v>
+        <v>1176586146.616044</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08369788405935419</v>
+        <v>0.07734600056538726</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02302422977932894</v>
+        <v>0.01746955990172635</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>565958585.1888102</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1223207531.648375</v>
+        <v>1229060958.167035</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1153416373191609</v>
+        <v>0.07136925692359823</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03649064294888972</v>
+        <v>0.03684335079878895</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>611603735.4778676</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3103867112.439676</v>
+        <v>2928334513.217623</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1705535819122866</v>
+        <v>0.1400913292086804</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02157331192627434</v>
+        <v>0.02468292119016526</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>74</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1551933529.81458</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2908002256.624749</v>
+        <v>2472931749.246906</v>
       </c>
       <c r="F37" t="n">
-        <v>0.105455694995069</v>
+        <v>0.09246780119421431</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03448675922990186</v>
+        <v>0.02894811936965595</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>77</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1454001280.530159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1580649284.953551</v>
+        <v>1359623715.195607</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1187163496066511</v>
+        <v>0.1125076027740389</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02447799051043737</v>
+        <v>0.03179176433340716</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>790324680.3378371</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1955935065.360701</v>
+        <v>1694041207.938734</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1227818102815773</v>
+        <v>0.193988798422531</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02033799250785591</v>
+        <v>0.02546299524207342</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>977967533.8996402</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1349121959.969511</v>
+        <v>1586033652.425297</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09850475752648007</v>
+        <v>0.1426584169647599</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04803312296922653</v>
+        <v>0.05956033986593209</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>674560983.950274</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2003708550.539049</v>
+        <v>1955571063.66443</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1639045708693447</v>
+        <v>0.1291246337117395</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04119630034530754</v>
+        <v>0.04174401495282561</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>74</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1001854349.110718</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3805463561.917912</v>
+        <v>3046471776.143608</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07721147249301909</v>
+        <v>0.08714082244467226</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04489232346677795</v>
+        <v>0.04187949790481445</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>103</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1902731796.845348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1902145497.564991</v>
+        <v>2826179688.629212</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1557384250899438</v>
+        <v>0.1664541994305285</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0230936686296678</v>
+        <v>0.0229304685131569</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>109</v>
-      </c>
-      <c r="J43" t="n">
-        <v>951072857.5732915</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2102376036.604431</v>
+        <v>1623396414.773582</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09037566008081936</v>
+        <v>0.07965543378384471</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03277300729916206</v>
+        <v>0.03587340461997496</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1051188145.055716</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1611916757.025619</v>
+        <v>2259995312.068196</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1645191494554176</v>
+        <v>0.1475393419275081</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05358952206811474</v>
+        <v>0.04785983325561561</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>805958330.2517953</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4590159467.000026</v>
+        <v>5515563647.73723</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1227911881019802</v>
+        <v>0.1418309601122781</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0407988642895177</v>
+        <v>0.04821422929557515</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>105</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2295079736.833306</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4259230049.419779</v>
+        <v>4724951209.647448</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1882307865065757</v>
+        <v>0.1316490360325549</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04001168804948044</v>
+        <v>0.05969372326488229</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>79</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2129615038.574073</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3453472472.985246</v>
+        <v>3595875899.223094</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09924239273056025</v>
+        <v>0.07624752737909458</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02692149576512369</v>
+        <v>0.03133257107146323</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>99</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1726736302.629567</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1698925443.612309</v>
+        <v>1953095237.304074</v>
       </c>
       <c r="F49" t="n">
-        <v>0.148901781379662</v>
+        <v>0.1941241037433463</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04195448944617913</v>
+        <v>0.03890369487423224</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>849462722.8960338</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2678708729.887111</v>
+        <v>3608480625.427293</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1499674444302478</v>
+        <v>0.1644727396827412</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0423784812505599</v>
+        <v>0.05223804257581811</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>101</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1339354447.626487</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1204227715.373284</v>
+        <v>1079797924.24071</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1275290566531255</v>
+        <v>0.1909157716836162</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05027905821203907</v>
+        <v>0.05317039437191921</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>602113908.5596285</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3636027407.73712</v>
+        <v>3239762433.531687</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1299259490276168</v>
+        <v>0.09144085184198941</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03728797955030417</v>
+        <v>0.05883779751952206</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>122</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1818013781.771822</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2297730050.261584</v>
+        <v>3800806261.88367</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1951638171139457</v>
+        <v>0.1975995670836892</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03539728132274021</v>
+        <v>0.02828499668749583</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>86</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1148865106.030054</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4003376983.602276</v>
+        <v>4612645696.199651</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1194550271019797</v>
+        <v>0.1596566977457117</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04975314273288312</v>
+        <v>0.03193417739328767</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>97</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2001688556.153948</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3560562033.212275</v>
+        <v>3033914193.671177</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1581040358584998</v>
+        <v>0.1518910726211119</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02961586154227651</v>
+        <v>0.02635646460782814</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>83</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1780280972.123715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1205182019.563966</v>
+        <v>1168928992.976713</v>
       </c>
       <c r="F56" t="n">
-        <v>0.140675693879543</v>
+        <v>0.1462261646629893</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03711868479481945</v>
+        <v>0.04516176144678426</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>602591095.745204</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3264844051.832652</v>
+        <v>3883857304.452723</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1802024772972501</v>
+        <v>0.1669234053707189</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01991151928966284</v>
+        <v>0.02351632435671529</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>94</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1632422052.559046</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1636124402.801685</v>
+        <v>1708579600.377493</v>
       </c>
       <c r="F58" t="n">
-        <v>0.147668609588135</v>
+        <v>0.1791656905754627</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03272821770802795</v>
+        <v>0.03525342775912787</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>818062220.1288148</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3389787604.683751</v>
+        <v>3929442276.86834</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09639911043291062</v>
+        <v>0.07947245347973902</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0362182918045937</v>
+        <v>0.03567028025113069</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>80</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1694893807.723442</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3402693986.650925</v>
+        <v>2384194585.64338</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1815019500774134</v>
+        <v>0.1819518047046045</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0275728716719274</v>
+        <v>0.02299600655177046</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>92</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1701347105.918772</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2601932293.661329</v>
+        <v>2882798036.632667</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1616460481867815</v>
+        <v>0.1621785277459009</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03081015418525547</v>
+        <v>0.03122271692867149</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>102</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1300966164.842795</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1417846964.241232</v>
+        <v>1318457873.855785</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1844851049022297</v>
+        <v>0.1931545672209847</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04250581041946819</v>
+        <v>0.04892324909680131</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>708923452.8666836</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5598501122.166414</v>
+        <v>4015185718.388774</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1049963374969366</v>
+        <v>0.06483342807420335</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03582067691592136</v>
+        <v>0.04650150301532291</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>84</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2799250552.140095</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4936240101.784251</v>
+        <v>4956192048.520259</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1894932331996067</v>
+        <v>0.1345488354022688</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02545055062714312</v>
+        <v>0.03436336962700438</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>92</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2468120152.61134</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4041646024.903275</v>
+        <v>5393055362.679209</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1244872133260115</v>
+        <v>0.1072079978408167</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02356387214240909</v>
+        <v>0.0251842710430659</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>106</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2020823028.547436</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3872220605.831993</v>
+        <v>5585747247.491606</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1576491750979985</v>
+        <v>0.1086320631154011</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04127715686753261</v>
+        <v>0.04961009768262059</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>86</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1936110269.652487</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3200259053.453238</v>
+        <v>3387216021.161541</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06599704270321406</v>
+        <v>0.07874017671776488</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03550880391406068</v>
+        <v>0.04688123503454462</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>94</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1600129528.070115</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4481207821.463044</v>
+        <v>4129167235.87309</v>
       </c>
       <c r="F68" t="n">
-        <v>0.115815170825463</v>
+        <v>0.1417781473895801</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03642773941962684</v>
+        <v>0.03588896342128069</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>97</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2240603935.678544</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1872383008.468886</v>
+        <v>1805583985.641674</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1537683158248876</v>
+        <v>0.1807145978949902</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05644149469125995</v>
+        <v>0.03981093501136825</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>936191492.6767918</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2913457310.764937</v>
+        <v>3074791323.160935</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1017694666136334</v>
+        <v>0.09509433134184059</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03896871014061778</v>
+        <v>0.04422822848622356</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>84</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1456728626.813699</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5372855813.776441</v>
+        <v>3974850012.750473</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1557606009421189</v>
+        <v>0.1839097934562269</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02988412058643627</v>
+        <v>0.02362807440382898</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>108</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2686428040.414518</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1960253028.035794</v>
+        <v>1664388607.841222</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08714279976911159</v>
+        <v>0.07622412247162479</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04956917306287315</v>
+        <v>0.03496836015552012</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>980126466.7712138</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3118197874.746344</v>
+        <v>2506481390.534159</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09752780063498524</v>
+        <v>0.09767444535682046</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04344137368507467</v>
+        <v>0.04666346691544165</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>112</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1559098922.539636</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3282269990.287898</v>
+        <v>2508922774.241298</v>
       </c>
       <c r="F74" t="n">
-        <v>0.158866463764525</v>
+        <v>0.1481446573151566</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03431393004087648</v>
+        <v>0.02586687104296468</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>101</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1641135036.161553</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1651782034.983688</v>
+        <v>1654751079.199952</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1561680720106897</v>
+        <v>0.1229243891704054</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02836414831191286</v>
+        <v>0.02667375754094023</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>825891014.3237484</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4285517588.823563</v>
+        <v>5044783312.904291</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1102941662711252</v>
+        <v>0.1019501323158015</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02351832255940959</v>
+        <v>0.03018769683212609</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>69</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2142758791.071555</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1979015528.41647</v>
+        <v>1966832010.190639</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1506755058865702</v>
+        <v>0.1550359076510035</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0300621717007588</v>
+        <v>0.02766346503013053</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>989507822.6098033</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4202942227.090245</v>
+        <v>4524698054.445371</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09954272519207982</v>
+        <v>0.09949407817381219</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03547127883035531</v>
+        <v>0.03845892562622279</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>103</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2101471064.768194</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1746139908.47707</v>
+        <v>1330395018.611792</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1509682815724175</v>
+        <v>0.1166353062319178</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03955839896694372</v>
+        <v>0.0321702291905489</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>873070031.5093008</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3810972343.22355</v>
+        <v>5172705835.817824</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07547103591992993</v>
+        <v>0.08886498396591276</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03247868753988027</v>
+        <v>0.03706171306907841</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>62</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1905486161.695208</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4725370643.726389</v>
+        <v>3926663016.997181</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1302965071662231</v>
+        <v>0.09055031279697845</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02284686618315908</v>
+        <v>0.03062914112158295</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2362685312.017348</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3751550059.542183</v>
+        <v>3565894019.670903</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1440719638102677</v>
+        <v>0.1628356753039801</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02834311864251524</v>
+        <v>0.02367528871216567</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>105</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1875775083.389917</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1544885997.033748</v>
+        <v>1526180908.146383</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1127925342511954</v>
+        <v>0.1102445621248458</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03782335294837343</v>
+        <v>0.03393867773013194</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>772442927.2016267</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2410985827.154439</v>
+        <v>2424584563.125287</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07495757048823964</v>
+        <v>0.1056251066316715</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04155641941345711</v>
+        <v>0.03941087373730533</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1205492858.403237</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2651307844.968298</v>
+        <v>3503923871.68451</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1557271796807437</v>
+        <v>0.1404187939557767</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0431946832943876</v>
+        <v>0.03830838881836574</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>112</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1325653944.130792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2248011268.581292</v>
+        <v>2075447094.147399</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1481224653928416</v>
+        <v>0.1660875104989194</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01840628489010097</v>
+        <v>0.02086434116527293</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>39</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1124005696.387539</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1123849603.047493</v>
+        <v>1146771862.256244</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1684287922842326</v>
+        <v>0.1888946531764638</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0358577934906912</v>
+        <v>0.02835632490719465</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>561924837.587353</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3148201891.231122</v>
+        <v>3323031482.619612</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1306226578202972</v>
+        <v>0.1182175066544824</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03178340033227998</v>
+        <v>0.02529493631289892</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>117</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1574100990.701765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3380171695.939031</v>
+        <v>3412899863.858161</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1510046148238817</v>
+        <v>0.1594596301129489</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03376495407983867</v>
+        <v>0.02677584069782252</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>100</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1690085858.226762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1593519228.911603</v>
+        <v>1442432563.002296</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1235299703753554</v>
+        <v>0.08456397353988876</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05492851977505802</v>
+        <v>0.04538014974391209</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>796759610.3024493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1861966846.059921</v>
+        <v>2004335337.990195</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1809850195881754</v>
+        <v>0.1688814770488049</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04776363918373362</v>
+        <v>0.04700746087087803</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>930983413.7162147</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2496629528.952902</v>
+        <v>1930763845.511182</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08903080155362728</v>
+        <v>0.1038617399894793</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04312994657912647</v>
+        <v>0.04506205503393974</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>77</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1248314748.155834</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4564127387.08957</v>
+        <v>3895181150.511417</v>
       </c>
       <c r="F93" t="n">
-        <v>0.118725115603062</v>
+        <v>0.1166276812221486</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05353050908250367</v>
+        <v>0.03661393892107739</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2282063657.685766</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1599525278.62394</v>
+        <v>1620801262.890832</v>
       </c>
       <c r="F94" t="n">
-        <v>0.157520484842145</v>
+        <v>0.1461347008868529</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03670195020343165</v>
+        <v>0.03302394348243082</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>799762585.5071073</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2588752558.931933</v>
+        <v>2083306224.233613</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1035504097844248</v>
+        <v>0.1361490548583891</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03194980140451922</v>
+        <v>0.03488055301019918</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>72</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1294376309.134627</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2368758820.448378</v>
+        <v>1600605062.767696</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1414373554210134</v>
+        <v>0.08876081999371557</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04503836162582567</v>
+        <v>0.04395871155138564</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1184379357.845081</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4281369258.090476</v>
+        <v>3661993864.811467</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1674884470870294</v>
+        <v>0.1154773902608587</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0274275457790842</v>
+        <v>0.02673076547757207</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>95</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2140684708.046776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2373688607.540661</v>
+        <v>3260317238.400213</v>
       </c>
       <c r="F98" t="n">
-        <v>0.119871445598303</v>
+        <v>0.1228941668750151</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03242567935741098</v>
+        <v>0.02552605223429549</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>79</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1186844245.971074</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3358037534.643084</v>
+        <v>2440282525.185271</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09771438643445757</v>
+        <v>0.1213387165711698</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02982772742257354</v>
+        <v>0.02729328586473269</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>93</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1679018779.184468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3377621497.161441</v>
+        <v>3251965785.146674</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1260789503719349</v>
+        <v>0.1737827707042846</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02618567191935927</v>
+        <v>0.02717839287273692</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>92</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1688810769.550989</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3520383674.494996</v>
+        <v>2311123234.198215</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1931247869316591</v>
+        <v>0.1883379584563034</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05457760939252505</v>
+        <v>0.04692998217140941</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>117</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1760191995.048229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_296.xlsx
+++ b/output/fit_clients/fit_round_296.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1864922241.252012</v>
+        <v>2062329096.732473</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08408978794748904</v>
+        <v>0.07065327681348946</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03634697140101949</v>
+        <v>0.04302981378917148</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2205320428.72044</v>
+        <v>2197850394.400981</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1547198046637833</v>
+        <v>0.1172581486982258</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0466309110547538</v>
+        <v>0.04608367492414341</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3607311902.030081</v>
+        <v>3916843540.606645</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1244593780216873</v>
+        <v>0.1030384634502316</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02483268128006868</v>
+        <v>0.02620370512166835</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3106996820.089917</v>
+        <v>3198119283.566787</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08509675122464187</v>
+        <v>0.08125181487528334</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03861564916209705</v>
+        <v>0.04131941194853162</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2664058878.931193</v>
+        <v>2528142168.163491</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1244412690274216</v>
+        <v>0.1083989978586457</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05028492825881412</v>
+        <v>0.04364792616499544</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2145982602.744474</v>
+        <v>2538991588.538081</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09124365729348392</v>
+        <v>0.07008110018740228</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04678056332590769</v>
+        <v>0.0348475252730121</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2674089653.429679</v>
+        <v>2979667356.949389</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1329694127263602</v>
+        <v>0.1990019041661553</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0230550671800077</v>
+        <v>0.02679046951689251</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1820418580.644702</v>
+        <v>2215925163.56282</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1660761302604838</v>
+        <v>0.1303066526275282</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03184951225796524</v>
+        <v>0.03383205471923719</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4104952398.417698</v>
+        <v>4379857906.401067</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1505203342031907</v>
+        <v>0.1386971318540409</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03612359969915678</v>
+        <v>0.04366471579582801</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3222947277.068748</v>
+        <v>4183760506.679741</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1677940226152675</v>
+        <v>0.1319927924908841</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04754898877038232</v>
+        <v>0.03236467205524726</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2313626409.687163</v>
+        <v>2543883665.018137</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1344885399565626</v>
+        <v>0.172191056787922</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04856761828412254</v>
+        <v>0.03560958620420149</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3341060029.084331</v>
+        <v>3418932045.078203</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07527525240421559</v>
+        <v>0.07646473106415502</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02849812691628367</v>
+        <v>0.02179693981633221</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2699018246.640724</v>
+        <v>3887611294.67161</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1521754056797673</v>
+        <v>0.1806812531396503</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03041361138984351</v>
+        <v>0.03766208132434037</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1376893530.950617</v>
+        <v>1316482567.763807</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0982354551225403</v>
+        <v>0.1038188812871642</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04412838073698314</v>
+        <v>0.0491404755333066</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2765142200.240423</v>
+        <v>2387893985.99102</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1045175504925707</v>
+        <v>0.1133377482145703</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05000976086404584</v>
+        <v>0.03220161950245639</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4143373010.399685</v>
+        <v>4604368436.813402</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1626443717656041</v>
+        <v>0.1623888071426118</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04950308994285873</v>
+        <v>0.03512479019672489</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3186422907.150352</v>
+        <v>3950075918.212384</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1711610291790733</v>
+        <v>0.1572037750916422</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03006151453218748</v>
+        <v>0.02258159076374873</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1361765290.798134</v>
+        <v>1148750879.71856</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1296956696659038</v>
+        <v>0.1337445263820018</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01929907654588677</v>
+        <v>0.0229869719076826</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2211115111.048082</v>
+        <v>2617794572.514629</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1057161989233138</v>
+        <v>0.1391705600978215</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03164287459920231</v>
+        <v>0.02053131068455702</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2000021852.861294</v>
+        <v>2721956429.186962</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07210598631096665</v>
+        <v>0.08653878910605507</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03636283333243696</v>
+        <v>0.02947714326272371</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2892619097.55541</v>
+        <v>3415573845.127823</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1281362010521276</v>
+        <v>0.1362340332969546</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04175361568980377</v>
+        <v>0.04635345601344679</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1148252010.790014</v>
+        <v>1170337722.486842</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1754516121055283</v>
+        <v>0.1453557920519583</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04229017782078737</v>
+        <v>0.03318188139148533</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3903733801.569631</v>
+        <v>2690908018.552519</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1299874281701311</v>
+        <v>0.1044188806606345</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03140696866427273</v>
+        <v>0.03101279268978402</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1153438021.344257</v>
+        <v>1143854114.48766</v>
       </c>
       <c r="F25" t="n">
-        <v>0.107950024651735</v>
+        <v>0.09152088212571891</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03059204685150711</v>
+        <v>0.02282202587423563</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1429845086.714107</v>
+        <v>1220415355.263518</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1000698322377174</v>
+        <v>0.08232678854682433</v>
       </c>
       <c r="G26" t="n">
-        <v>0.028723778505272</v>
+        <v>0.02519336807349716</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4531185653.045649</v>
+        <v>4680777654.814452</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1573679104494642</v>
+        <v>0.1474908622889017</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01891353772592917</v>
+        <v>0.01692063482081498</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2966326080.639412</v>
+        <v>2545700560.8161</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1335186458792773</v>
+        <v>0.1178326106516122</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03924608819938746</v>
+        <v>0.03934165134501037</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4877806901.631529</v>
+        <v>5574024659.982667</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1405135085988118</v>
+        <v>0.1126633422901908</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03654788294921009</v>
+        <v>0.03686976324714927</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1608258218.528257</v>
+        <v>1495877433.555936</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1131797208828186</v>
+        <v>0.09850866478204866</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02641789188142835</v>
+        <v>0.0396657460679269</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1019456842.627057</v>
+        <v>989770863.3219117</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07317533363580694</v>
+        <v>0.1014200335918404</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03639964896480802</v>
+        <v>0.03757826213585364</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1462607567.496938</v>
+        <v>1709934400.577421</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1052273541873996</v>
+        <v>0.08680697967230754</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03006947826846879</v>
+        <v>0.02690426294510791</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2283716917.833761</v>
+        <v>2715036564.945102</v>
       </c>
       <c r="F33" t="n">
-        <v>0.149404038716453</v>
+        <v>0.1697186657708014</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04875616117697903</v>
+        <v>0.04746741073232948</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1176586146.616044</v>
+        <v>1323445833.093625</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07734600056538726</v>
+        <v>0.1004339500181738</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01746955990172635</v>
+        <v>0.02676801199053895</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1229060958.167035</v>
+        <v>1247279044.558505</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07136925692359823</v>
+        <v>0.09275022022713407</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03684335079878895</v>
+        <v>0.04517873264515201</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2928334513.217623</v>
+        <v>3133657665.351407</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1400913292086804</v>
+        <v>0.1471177034274615</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02468292119016526</v>
+        <v>0.02748278431305406</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2472931749.246906</v>
+        <v>1804794709.7256</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09246780119421431</v>
+        <v>0.08933264356877076</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02894811936965595</v>
+        <v>0.03663533810114685</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1359623715.195607</v>
+        <v>1468646258.0358</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1125076027740389</v>
+        <v>0.08112721646560105</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03179176433340716</v>
+        <v>0.0334907458856162</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1694041207.938734</v>
+        <v>1751938257.033276</v>
       </c>
       <c r="F39" t="n">
-        <v>0.193988798422531</v>
+        <v>0.1441036386041096</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02546299524207342</v>
+        <v>0.02646119056700755</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1586033652.425297</v>
+        <v>1579816836.016914</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1426584169647599</v>
+        <v>0.1242712753985851</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05956033986593209</v>
+        <v>0.04866313927213173</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1955571063.66443</v>
+        <v>2314762905.402041</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1291246337117395</v>
+        <v>0.1289478230126479</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04174401495282561</v>
+        <v>0.04378605441009756</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3046471776.143608</v>
+        <v>3449187669.55553</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08714082244467226</v>
+        <v>0.08003826897017434</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04187949790481445</v>
+        <v>0.03210425959268922</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2826179688.629212</v>
+        <v>2017992338.446344</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1664541994305285</v>
+        <v>0.1325894183650964</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0229304685131569</v>
+        <v>0.02067073502799071</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1623396414.773582</v>
+        <v>1515357598.870409</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07965543378384471</v>
+        <v>0.1003290809176479</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03587340461997496</v>
+        <v>0.03301613395027345</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2259995312.068196</v>
+        <v>1761414998.049857</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1475393419275081</v>
+        <v>0.1511676390449428</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04785983325561561</v>
+        <v>0.03583931640957636</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5515563647.73723</v>
+        <v>5635763127.548412</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1418309601122781</v>
+        <v>0.1128550068953398</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04821422929557515</v>
+        <v>0.05629319397593787</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4724951209.647448</v>
+        <v>3970802500.679939</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1316490360325549</v>
+        <v>0.1830141233904598</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05969372326488229</v>
+        <v>0.05547955711331528</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3595875899.223094</v>
+        <v>4321674207.575223</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07624752737909458</v>
+        <v>0.06679609935949596</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03133257107146323</v>
+        <v>0.02492223268954992</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1953095237.304074</v>
+        <v>1713088983.650625</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1941241037433463</v>
+        <v>0.130305394702504</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03890369487423224</v>
+        <v>0.03587592259665606</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3608480625.427293</v>
+        <v>3121991085.541703</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1644727396827412</v>
+        <v>0.1388116801336221</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05223804257581811</v>
+        <v>0.04092268424599374</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1079797924.24071</v>
+        <v>1409300541.445436</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1909157716836162</v>
+        <v>0.1221417054691611</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05317039437191921</v>
+        <v>0.04633765184997495</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3239762433.531687</v>
+        <v>4510626156.108106</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09144085184198941</v>
+        <v>0.1036152754439133</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05883779751952206</v>
+        <v>0.04902549681204122</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3800806261.88367</v>
+        <v>2852444997.084959</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1975995670836892</v>
+        <v>0.1363020967611484</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02828499668749583</v>
+        <v>0.02559522422672596</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4612645696.199651</v>
+        <v>4437493827.217758</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1596566977457117</v>
+        <v>0.1495926094199094</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03193417739328767</v>
+        <v>0.04140912579316752</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3033914193.671177</v>
+        <v>3943633595.217177</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1518910726211119</v>
+        <v>0.1752610582436075</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02635646460782814</v>
+        <v>0.02611924648644747</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1168928992.976713</v>
+        <v>1296919476.775947</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1462261646629893</v>
+        <v>0.1542262626930128</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04516176144678426</v>
+        <v>0.05197615225815071</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3883857304.452723</v>
+        <v>3013961002.256162</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1669234053707189</v>
+        <v>0.1294862276120421</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02351632435671529</v>
+        <v>0.02299705293869139</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1708579600.377493</v>
+        <v>1671734680.284758</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1791656905754627</v>
+        <v>0.159676987526581</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03525342775912787</v>
+        <v>0.03555795362768417</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3929442276.86834</v>
+        <v>3677243896.333646</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07947245347973902</v>
+        <v>0.08354649601239617</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03567028025113069</v>
+        <v>0.03428130010748429</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2384194585.64338</v>
+        <v>2361966337.665742</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1819518047046045</v>
+        <v>0.1365410416979393</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02299600655177046</v>
+        <v>0.02679873185951584</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2882798036.632667</v>
+        <v>3207157231.618046</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1621785277459009</v>
+        <v>0.1126743676913374</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03122271692867149</v>
+        <v>0.02978730722809712</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1318457873.855785</v>
+        <v>1510961073.511109</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1931545672209847</v>
+        <v>0.1559699647988649</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04892324909680131</v>
+        <v>0.03123017419593834</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4015185718.388774</v>
+        <v>4384562326.290403</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06483342807420335</v>
+        <v>0.08063213602729544</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04650150301532291</v>
+        <v>0.03600589141510267</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4956192048.520259</v>
+        <v>4672310238.870958</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1345488354022688</v>
+        <v>0.1837955439951401</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03436336962700438</v>
+        <v>0.02647875296041197</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5393055362.679209</v>
+        <v>4750075884.38599</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1072079978408167</v>
+        <v>0.1467705335508863</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0251842710430659</v>
+        <v>0.02630699860732597</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5585747247.491606</v>
+        <v>5151401877.255447</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1086320631154011</v>
+        <v>0.1549471743856451</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04961009768262059</v>
+        <v>0.04840277595801384</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3387216021.161541</v>
+        <v>3117497371.407865</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07874017671776488</v>
+        <v>0.06858450446940172</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04688123503454462</v>
+        <v>0.04701533969641313</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4129167235.87309</v>
+        <v>4997755627.515056</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1417781473895801</v>
+        <v>0.09679801591594571</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03588896342128069</v>
+        <v>0.04362958334614882</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1805583985.641674</v>
+        <v>1661294035.653097</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1807145978949902</v>
+        <v>0.14260433077312</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03981093501136825</v>
+        <v>0.05707630287639322</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3074791323.160935</v>
+        <v>3036155941.258718</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09509433134184059</v>
+        <v>0.06865807678713469</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04422822848622356</v>
+        <v>0.04859787417527493</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3974850012.750473</v>
+        <v>4152195602.184921</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1839097934562269</v>
+        <v>0.1661747628890414</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02362807440382898</v>
+        <v>0.02056794029959183</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1664388607.841222</v>
+        <v>2083859414.667863</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07622412247162479</v>
+        <v>0.08020404366589799</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03496836015552012</v>
+        <v>0.0522187030030718</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2506481390.534159</v>
+        <v>2769049516.933531</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09767444535682046</v>
+        <v>0.1018013409683485</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04666346691544165</v>
+        <v>0.03847123344509553</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2508922774.241298</v>
+        <v>3699513183.02338</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1481446573151566</v>
+        <v>0.1248942765364504</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02586687104296468</v>
+        <v>0.02572065993251477</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1654751079.199952</v>
+        <v>2415243409.471826</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1229243891704054</v>
+        <v>0.1603209980307473</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02667375754094023</v>
+        <v>0.03391596158167676</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5044783312.904291</v>
+        <v>4566272166.136131</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1019501323158015</v>
+        <v>0.08057013050827944</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03018769683212609</v>
+        <v>0.02415261586287377</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1966832010.190639</v>
+        <v>1978915522.152972</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1550359076510035</v>
+        <v>0.1253352062421284</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02766346503013053</v>
+        <v>0.03169653069756825</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4524698054.445371</v>
+        <v>2941332589.445949</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09949407817381219</v>
+        <v>0.08827828050326234</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03845892562622279</v>
+        <v>0.05208925067110782</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1330395018.611792</v>
+        <v>1386114369.802861</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1166353062319178</v>
+        <v>0.1100649193927467</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0321702291905489</v>
+        <v>0.03523319261103185</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5172705835.817824</v>
+        <v>4364668602.645768</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08886498396591276</v>
+        <v>0.111776165577146</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03706171306907841</v>
+        <v>0.02552408152889484</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3926663016.997181</v>
+        <v>3280160579.306327</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09055031279697845</v>
+        <v>0.09214785129144736</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03062914112158295</v>
+        <v>0.02566078714264071</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3565894019.670903</v>
+        <v>4182394998.01474</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1628356753039801</v>
+        <v>0.1573403548242409</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02367528871216567</v>
+        <v>0.02866830022978619</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1526180908.146383</v>
+        <v>2354938959.045518</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1102445621248458</v>
+        <v>0.1393118172670053</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03393867773013194</v>
+        <v>0.03946484461721649</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2424584563.125287</v>
+        <v>1597268696.058909</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1056251066316715</v>
+        <v>0.09403318414609739</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03941087373730533</v>
+        <v>0.03670104155821324</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3503923871.68451</v>
+        <v>3448134829.95736</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1404187939557767</v>
+        <v>0.1604199761037484</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03830838881836574</v>
+        <v>0.04792477623579203</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2075447094.147399</v>
+        <v>2783428600.886328</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1660875104989194</v>
+        <v>0.1681838834196336</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02086434116527293</v>
+        <v>0.0257047626561766</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1146771862.256244</v>
+        <v>1079874196.070102</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1888946531764638</v>
+        <v>0.118739745130375</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02835632490719465</v>
+        <v>0.03760767736342333</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3323031482.619612</v>
+        <v>3277765527.030858</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1182175066544824</v>
+        <v>0.1522771807039933</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02529493631289892</v>
+        <v>0.0263294121349699</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3412899863.858161</v>
+        <v>2842425555.889408</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1594596301129489</v>
+        <v>0.1341168666268668</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02677584069782252</v>
+        <v>0.03773612504705422</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1442432563.002296</v>
+        <v>1590014207.257776</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08456397353988876</v>
+        <v>0.0965813930364154</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04538014974391209</v>
+        <v>0.03570510240055492</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2004335337.990195</v>
+        <v>1582658597.265228</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1688814770488049</v>
+        <v>0.1311765532007013</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04700746087087803</v>
+        <v>0.04092350323642782</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1930763845.511182</v>
+        <v>2398585250.08889</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1038617399894793</v>
+        <v>0.0802754890736794</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04506205503393974</v>
+        <v>0.03021753719111153</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3895181150.511417</v>
+        <v>3710587679.713649</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1166276812221486</v>
+        <v>0.0943814759496166</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03661393892107739</v>
+        <v>0.05478707068478063</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1620801262.890832</v>
+        <v>1886635197.235846</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1461347008868529</v>
+        <v>0.1074774971710805</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03302394348243082</v>
+        <v>0.03521644122909105</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2083306224.233613</v>
+        <v>2841810977.225368</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1361490548583891</v>
+        <v>0.1251185253672316</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03488055301019918</v>
+        <v>0.0421970530614945</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1600605062.767696</v>
+        <v>1759200579.278553</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08876081999371557</v>
+        <v>0.1193532703308697</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04395871155138564</v>
+        <v>0.03126085257617784</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3661993864.811467</v>
+        <v>3601055025.926393</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1154773902608587</v>
+        <v>0.1579442596339229</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02673076547757207</v>
+        <v>0.02516736985695041</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3260317238.400213</v>
+        <v>3233065563.174813</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1228941668750151</v>
+        <v>0.1150622593181148</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02552605223429549</v>
+        <v>0.02055725644225552</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2440282525.185271</v>
+        <v>2790410342.035579</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1213387165711698</v>
+        <v>0.1431171755760406</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02729328586473269</v>
+        <v>0.03334334618122092</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3251965785.146674</v>
+        <v>4067489023.404995</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1737827707042846</v>
+        <v>0.1284414794747025</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02717839287273692</v>
+        <v>0.02521462048813325</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2311123234.198215</v>
+        <v>2696626494.183937</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1883379584563034</v>
+        <v>0.2161722221759275</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04692998217140941</v>
+        <v>0.04428368245367077</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_296.xlsx
+++ b/output/fit_clients/fit_round_296.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2062329096.732473</v>
+        <v>1753094243.879938</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07065327681348946</v>
+        <v>0.1115138898119033</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04302981378917148</v>
+        <v>0.04343557347303598</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2197850394.400981</v>
+        <v>2577809292.273129</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1172581486982258</v>
+        <v>0.1833354761630245</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04608367492414341</v>
+        <v>0.03994494559462822</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3916843540.606645</v>
+        <v>5079175430.262844</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1030384634502316</v>
+        <v>0.1625187947778743</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02620370512166835</v>
+        <v>0.02846243943061059</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>156</v>
+      </c>
+      <c r="J4" t="n">
+        <v>295</v>
+      </c>
+      <c r="K4" t="n">
+        <v>83.0733097838105</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3198119283.566787</v>
+        <v>2608693941.033413</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08125181487528334</v>
+        <v>0.08255290112094847</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04131941194853162</v>
+        <v>0.04750172185356461</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>121</v>
+      </c>
+      <c r="J5" t="n">
+        <v>293</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2528142168.163491</v>
+        <v>2004924297.068285</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1083989978586457</v>
+        <v>0.1032333871218881</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04364792616499544</v>
+        <v>0.03511336320546626</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2538991588.538081</v>
+        <v>3118913191.957556</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07008110018740228</v>
+        <v>0.07415107086858469</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0348475252730121</v>
+        <v>0.04754742083287005</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2979667356.949389</v>
+        <v>3203411461.83494</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1990019041661553</v>
+        <v>0.1740710908909781</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02679046951689251</v>
+        <v>0.02111821853033165</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>79</v>
+      </c>
+      <c r="J8" t="n">
+        <v>295</v>
+      </c>
+      <c r="K8" t="n">
+        <v>72.34806612751898</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2215925163.56282</v>
+        <v>1898286055.708344</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1303066526275282</v>
+        <v>0.1721991221203624</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03383205471923719</v>
+        <v>0.03026320919230443</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4379857906.401067</v>
+        <v>3896808650.184484</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1386971318540409</v>
+        <v>0.1872668299047844</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04366471579582801</v>
+        <v>0.035181984325181</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>263</v>
+      </c>
+      <c r="J10" t="n">
+        <v>296</v>
+      </c>
+      <c r="K10" t="n">
+        <v>85.83800355821259</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4183760506.679741</v>
+        <v>3116182562.478269</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1319927924908841</v>
+        <v>0.1783734629391947</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03236467205524726</v>
+        <v>0.04185208542367125</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>118</v>
+      </c>
+      <c r="J11" t="n">
+        <v>289</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2543883665.018137</v>
+        <v>3310854803.648397</v>
       </c>
       <c r="F12" t="n">
-        <v>0.172191056787922</v>
+        <v>0.1614812730512261</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03560958620420149</v>
+        <v>0.0341245845056092</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>296</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3418932045.078203</v>
+        <v>4155067598.533995</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07646473106415502</v>
+        <v>0.1013415228957544</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02179693981633221</v>
+        <v>0.02074745850618399</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>151</v>
+      </c>
+      <c r="J13" t="n">
+        <v>296</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3887611294.67161</v>
+        <v>2927868053.781715</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1806812531396503</v>
+        <v>0.1658704430300511</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03766208132434037</v>
+        <v>0.03329846446365804</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>62</v>
+      </c>
+      <c r="J14" t="n">
+        <v>294</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1316482567.763807</v>
+        <v>1830416925.401586</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1038188812871642</v>
+        <v>0.07455579303021086</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0491404755333066</v>
+        <v>0.0361309841864517</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2387893985.99102</v>
+        <v>1974631710.615164</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1133377482145703</v>
+        <v>0.1145306448838558</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03220161950245639</v>
+        <v>0.03167425282178197</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4604368436.813402</v>
+        <v>3648339448.432302</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1623888071426118</v>
+        <v>0.1279798841612155</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03512479019672489</v>
+        <v>0.0517681201569677</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>141</v>
+      </c>
+      <c r="J17" t="n">
+        <v>295</v>
+      </c>
+      <c r="K17" t="n">
+        <v>80.03198022781046</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3950075918.212384</v>
+        <v>2566362707.138535</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1572037750916422</v>
+        <v>0.1465132032314448</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02258159076374873</v>
+        <v>0.02522487305563471</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>75</v>
+      </c>
+      <c r="J18" t="n">
+        <v>291</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1148750879.71856</v>
+        <v>1314224992.242567</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1337445263820018</v>
+        <v>0.1835981653484849</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0229869719076826</v>
+        <v>0.02726784543514076</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2617794572.514629</v>
+        <v>2687796772.121955</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1391705600978215</v>
+        <v>0.1277872851560685</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02053131068455702</v>
+        <v>0.02141783334104975</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2721956429.186962</v>
+        <v>2023756038.21135</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08653878910605507</v>
+        <v>0.07893277183639176</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02947714326272371</v>
+        <v>0.03504294113222749</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3415573845.127823</v>
+        <v>2825707028.158358</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1362340332969546</v>
+        <v>0.1164113324826409</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04635345601344679</v>
+        <v>0.03635502971055044</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>80</v>
+      </c>
+      <c r="J22" t="n">
+        <v>294</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1170337722.486842</v>
+        <v>1201392401.006216</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1453557920519583</v>
+        <v>0.1366729335535368</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03318188139148533</v>
+        <v>0.03951653293655528</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2690908018.552519</v>
+        <v>3067758513.952886</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1044188806606345</v>
+        <v>0.09429796022141375</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03101279268978402</v>
+        <v>0.02956035911551657</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>87</v>
+      </c>
+      <c r="J24" t="n">
+        <v>292</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1143854114.48766</v>
+        <v>1471006233.021087</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09152088212571891</v>
+        <v>0.1101885196464643</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02282202587423563</v>
+        <v>0.02655208885691456</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1220415355.263518</v>
+        <v>1073892822.606439</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08232678854682433</v>
+        <v>0.1036130124767921</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02519336807349716</v>
+        <v>0.03066705891092494</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1384,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4680777654.814452</v>
+        <v>3412861108.660799</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1474908622889017</v>
+        <v>0.0955375753837205</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01692063482081498</v>
+        <v>0.02478486865757309</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>122</v>
+      </c>
+      <c r="J27" t="n">
+        <v>295</v>
+      </c>
+      <c r="K27" t="n">
+        <v>67.98375839229541</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2545700560.8161</v>
+        <v>2941030764.814103</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1178326106516122</v>
+        <v>0.1176688261835463</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03934165134501037</v>
+        <v>0.0401339493851933</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>62</v>
+      </c>
+      <c r="J28" t="n">
+        <v>293</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5574024659.982667</v>
+        <v>4159338315.264339</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1126633422901908</v>
+        <v>0.1370809189107729</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03686976324714927</v>
+        <v>0.03415515139754199</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>280</v>
+      </c>
+      <c r="J29" t="n">
+        <v>295</v>
+      </c>
+      <c r="K29" t="n">
+        <v>82.98641936929886</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1495877433.555936</v>
+        <v>2153044414.258128</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09850866478204866</v>
+        <v>0.1119276991769056</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0396657460679269</v>
+        <v>0.03533378876348821</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>989770863.3219117</v>
+        <v>1249081982.784908</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1014200335918404</v>
+        <v>0.1068452859769217</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03757826213585364</v>
+        <v>0.03503355230044165</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1709934400.577421</v>
+        <v>1571015790.515999</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08680697967230754</v>
+        <v>0.1170207934295774</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02690426294510791</v>
+        <v>0.0335375401338371</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2715036564.945102</v>
+        <v>3032716188.105525</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1697186657708014</v>
+        <v>0.190853440218296</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04746741073232948</v>
+        <v>0.04468442383006694</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1323445833.093625</v>
+        <v>1051142902.449808</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1004339500181738</v>
+        <v>0.07479637004208819</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02676801199053895</v>
+        <v>0.02239422959085512</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1247279044.558505</v>
+        <v>1211519783.701813</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09275022022713407</v>
+        <v>0.07692985879115583</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04517873264515201</v>
+        <v>0.03028867361065364</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3133657665.351407</v>
+        <v>3134277258.592266</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1471177034274615</v>
+        <v>0.1486110721157287</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02748278431305406</v>
+        <v>0.02833367508231316</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1804794709.7256</v>
+        <v>2903551928.791882</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08933264356877076</v>
+        <v>0.086153015125085</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03663533810114685</v>
+        <v>0.02983395361574332</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1468646258.0358</v>
+        <v>1783966153.391094</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08112721646560105</v>
+        <v>0.08129393575830957</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0334907458856162</v>
+        <v>0.027980752286504</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1751938257.033276</v>
+        <v>1533942788.667211</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1441036386041096</v>
+        <v>0.1629029503175227</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02646119056700755</v>
+        <v>0.02871906278066644</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1579816836.016914</v>
+        <v>1620360312.887473</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1242712753985851</v>
+        <v>0.158228140891812</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04866313927213173</v>
+        <v>0.0375121514589121</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2314762905.402041</v>
+        <v>2730665113.666321</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1289478230126479</v>
+        <v>0.1457270054833588</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04378605441009756</v>
+        <v>0.04454937104076467</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3449187669.55553</v>
+        <v>2897006949.113488</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08003826897017434</v>
+        <v>0.09206290259739457</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03210425959268922</v>
+        <v>0.04126094789370366</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>122</v>
+      </c>
+      <c r="J42" t="n">
+        <v>294</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2017992338.446344</v>
+        <v>2361535889.408527</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1325894183650964</v>
+        <v>0.1746141075861889</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02067073502799071</v>
+        <v>0.01954460932648135</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1515357598.870409</v>
+        <v>1950405473.450208</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1003290809176479</v>
+        <v>0.09974865650561283</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03301613395027345</v>
+        <v>0.02479242350121043</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1761414998.049857</v>
+        <v>1865192789.736029</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1511676390449428</v>
+        <v>0.1672566416848529</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03583931640957636</v>
+        <v>0.04041341795309816</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5635763127.548412</v>
+        <v>3567141814.931227</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1128550068953398</v>
+        <v>0.1454992459147863</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05629319397593787</v>
+        <v>0.03990716588103684</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>175</v>
+      </c>
+      <c r="J46" t="n">
+        <v>296</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3970802500.679939</v>
+        <v>3149611445.213306</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1830141233904598</v>
+        <v>0.2005266480253131</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05547955711331528</v>
+        <v>0.03870815027658851</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>132</v>
+      </c>
+      <c r="J47" t="n">
+        <v>294</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4321674207.575223</v>
+        <v>3222788998.905587</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06679609935949596</v>
+        <v>0.07339759564471611</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02492223268954992</v>
+        <v>0.03107517836241209</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>148</v>
+      </c>
+      <c r="J48" t="n">
+        <v>295</v>
+      </c>
+      <c r="K48" t="n">
+        <v>70.68353588355359</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1713088983.650625</v>
+        <v>1284673172.787362</v>
       </c>
       <c r="F49" t="n">
-        <v>0.130305394702504</v>
+        <v>0.1740355218836202</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03587592259665606</v>
+        <v>0.03128784376409844</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3121991085.541703</v>
+        <v>3072622296.260205</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1388116801336221</v>
+        <v>0.1753738997938359</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04092268424599374</v>
+        <v>0.03447790211247697</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>94</v>
+      </c>
+      <c r="J50" t="n">
+        <v>292</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2230,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1409300541.445436</v>
+        <v>1112135527.908507</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1221417054691611</v>
+        <v>0.1828893165760847</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04633765184997495</v>
+        <v>0.03691912731471905</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2259,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4510626156.108106</v>
+        <v>4230784990.943626</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1036152754439133</v>
+        <v>0.09161844583049845</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04902549681204122</v>
+        <v>0.0592998677278851</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>182</v>
+      </c>
+      <c r="J52" t="n">
+        <v>296</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2852444997.084959</v>
+        <v>2802632744.118773</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1363020967611484</v>
+        <v>0.1257728801854784</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02559522422672596</v>
+        <v>0.02766520064023383</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>41</v>
+      </c>
+      <c r="J53" t="n">
+        <v>293</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4437493827.217758</v>
+        <v>4096554698.866063</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1495926094199094</v>
+        <v>0.1671318961642007</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04140912579316752</v>
+        <v>0.03232708288375293</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>156</v>
+      </c>
+      <c r="J54" t="n">
+        <v>296</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2364,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3943633595.217177</v>
+        <v>3976807022.90517</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1752610582436075</v>
+        <v>0.1910596814013833</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02611924648644747</v>
+        <v>0.02180124603554499</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>135</v>
+      </c>
+      <c r="J55" t="n">
+        <v>296</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2399,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1296919476.775947</v>
+        <v>1147842916.093308</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1542262626930128</v>
+        <v>0.1279382173891111</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05197615225815071</v>
+        <v>0.05274282505987576</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2434,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3013961002.256162</v>
+        <v>4534218979.987147</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1294862276120421</v>
+        <v>0.1241161154080331</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02299705293869139</v>
+        <v>0.02674128492031545</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>120</v>
+      </c>
+      <c r="J57" t="n">
+        <v>296</v>
+      </c>
+      <c r="K57" t="n">
+        <v>87.05960536264794</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2471,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1671734680.284758</v>
+        <v>1430867525.069072</v>
       </c>
       <c r="F58" t="n">
-        <v>0.159676987526581</v>
+        <v>0.2028137266060473</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03555795362768417</v>
+        <v>0.03688570399819094</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2506,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3677243896.333646</v>
+        <v>3710504110.738543</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08354649601239617</v>
+        <v>0.1058302593321382</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03428130010748429</v>
+        <v>0.04049608102684133</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>143</v>
+      </c>
+      <c r="J59" t="n">
+        <v>295</v>
+      </c>
+      <c r="K59" t="n">
+        <v>79.77867460281529</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2543,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2361966337.665742</v>
+        <v>2309390967.74779</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1365410416979393</v>
+        <v>0.1882595211389238</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02679873185951584</v>
+        <v>0.02114936661087145</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>48</v>
+      </c>
+      <c r="J60" t="n">
+        <v>286</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3207157231.618046</v>
+        <v>2080973722.753474</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1126743676913374</v>
+        <v>0.1586606034489942</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02978730722809712</v>
+        <v>0.02617587201042884</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1510961073.511109</v>
+        <v>1494709684.363866</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1559699647988649</v>
+        <v>0.1799969884876512</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03123017419593834</v>
+        <v>0.045932393724066</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2654,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4384562326.290403</v>
+        <v>3800173361.225946</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08063213602729544</v>
+        <v>0.09708833828083123</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03600589141510267</v>
+        <v>0.02930561340942319</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>144</v>
+      </c>
+      <c r="J63" t="n">
+        <v>295</v>
+      </c>
+      <c r="K63" t="n">
+        <v>80.41937081159898</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4672310238.870958</v>
+        <v>5390103860.225895</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1837955439951401</v>
+        <v>0.157468883195271</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02647875296041197</v>
+        <v>0.03325777322511742</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>145</v>
+      </c>
+      <c r="J64" t="n">
+        <v>296</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2726,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4750075884.38599</v>
+        <v>5300752461.121506</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1467705335508863</v>
+        <v>0.1703498517456179</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02630699860732597</v>
+        <v>0.03231787007986757</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>236</v>
+      </c>
+      <c r="J65" t="n">
+        <v>296</v>
+      </c>
+      <c r="K65" t="n">
+        <v>84.54744434595213</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5151401877.255447</v>
+        <v>3651988125.990258</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1549471743856451</v>
+        <v>0.1457982896240881</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04840277595801384</v>
+        <v>0.03585878136050914</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>146</v>
+      </c>
+      <c r="J66" t="n">
+        <v>295</v>
+      </c>
+      <c r="K66" t="n">
+        <v>78.22569752118983</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2794,31 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3117497371.407865</v>
+        <v>3500892351.950464</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06858450446940172</v>
+        <v>0.09416792863980325</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04701533969641313</v>
+        <v>0.03384987731161674</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>296</v>
+      </c>
+      <c r="K67" t="n">
+        <v>95.32945801100236</v>
       </c>
     </row>
     <row r="68">
@@ -2334,17 +2837,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4997755627.515056</v>
+        <v>4451107927.980634</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09679801591594571</v>
+        <v>0.1208166286185779</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04362958334614882</v>
+        <v>0.04605373954891735</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>156</v>
+      </c>
+      <c r="J68" t="n">
+        <v>296</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1661294035.653097</v>
+        <v>2206468670.605635</v>
       </c>
       <c r="F69" t="n">
-        <v>0.14260433077312</v>
+        <v>0.137749790168438</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05707630287639322</v>
+        <v>0.05255998275942667</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2907,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3036155941.258718</v>
+        <v>3634401138.466711</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06865807678713469</v>
+        <v>0.09971586444433479</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04859787417527493</v>
+        <v>0.04633429616851883</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>43</v>
+      </c>
+      <c r="J70" t="n">
+        <v>296</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2936,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4152195602.184921</v>
+        <v>3768828871.144886</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1661747628890414</v>
+        <v>0.1584449631991545</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02056794029959183</v>
+        <v>0.03055571461937421</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>221</v>
+      </c>
+      <c r="J71" t="n">
+        <v>296</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2977,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2083859414.667863</v>
+        <v>1428557785.243004</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08020404366589799</v>
+        <v>0.07770104649736836</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0522187030030718</v>
+        <v>0.04123967083970861</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,16 +3012,25 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2769049516.933531</v>
+        <v>3073340220.421386</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1018013409683485</v>
+        <v>0.1101911037127172</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03847123344509553</v>
+        <v>0.04563501126703522</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>20</v>
+      </c>
+      <c r="J73" t="n">
+        <v>295</v>
+      </c>
+      <c r="K73" t="n">
+        <v>78.73414883561</v>
       </c>
     </row>
     <row r="74">
@@ -2502,16 +3049,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3699513183.02338</v>
+        <v>2781786077.203718</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1248942765364504</v>
+        <v>0.1217725237068978</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02572065993251477</v>
+        <v>0.03337732154126806</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>80</v>
+      </c>
+      <c r="J74" t="n">
+        <v>295</v>
+      </c>
+      <c r="K74" t="n">
+        <v>55.10824936484743</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2415243409.471826</v>
+        <v>1532996537.73775</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1603209980307473</v>
+        <v>0.1335577686089275</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03391596158167676</v>
+        <v>0.02357778705674569</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3121,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4566272166.136131</v>
+        <v>5078089617.428934</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08057013050827944</v>
+        <v>0.1237121338487664</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02415261586287377</v>
+        <v>0.02818845562791042</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>139</v>
+      </c>
+      <c r="J76" t="n">
+        <v>295</v>
+      </c>
+      <c r="K76" t="n">
+        <v>78.31329340845058</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1978915522.152972</v>
+        <v>1617644549.373669</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1253352062421284</v>
+        <v>0.1359640140413041</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03169653069756825</v>
+        <v>0.02819838046988232</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3193,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2941332589.445949</v>
+        <v>3435292461.442154</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08827828050326234</v>
+        <v>0.1351462132095484</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05208925067110782</v>
+        <v>0.03670304187493825</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>147</v>
+      </c>
+      <c r="J78" t="n">
+        <v>296</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1386114369.802861</v>
+        <v>1876868247.973394</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1100649193927467</v>
+        <v>0.1416746903122434</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03523319261103185</v>
+        <v>0.03760987096911347</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4364668602.645768</v>
+        <v>4673763112.629392</v>
       </c>
       <c r="F80" t="n">
-        <v>0.111776165577146</v>
+        <v>0.08172865168136974</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02552408152889484</v>
+        <v>0.02935621799105155</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>145</v>
+      </c>
+      <c r="J80" t="n">
+        <v>295</v>
+      </c>
+      <c r="K80" t="n">
+        <v>62.63007492563783</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3280160579.306327</v>
+        <v>3507349097.229764</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09214785129144736</v>
+        <v>0.124869320242928</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02566078714264071</v>
+        <v>0.0216103734808424</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>136</v>
+      </c>
+      <c r="J81" t="n">
+        <v>295</v>
+      </c>
+      <c r="K81" t="n">
+        <v>69.86351563842571</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4182394998.01474</v>
+        <v>4178648558.466757</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1573403548242409</v>
+        <v>0.2014368861899859</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02866830022978619</v>
+        <v>0.02646406534037219</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>216</v>
+      </c>
+      <c r="J82" t="n">
+        <v>296</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2354938959.045518</v>
+        <v>1839435795.994961</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1393118172670053</v>
+        <v>0.1233895390641711</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03946484461721649</v>
+        <v>0.02803626270351614</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1597268696.058909</v>
+        <v>1851612555.388325</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09403318414609739</v>
+        <v>0.08381843793171011</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03670104155821324</v>
+        <v>0.04217601547653572</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3448134829.95736</v>
+        <v>2713953736.365508</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1604199761037484</v>
+        <v>0.1662027025550864</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04792477623579203</v>
+        <v>0.05460312301493226</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>39</v>
+      </c>
+      <c r="J85" t="n">
+        <v>282</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2783428600.886328</v>
+        <v>2734259443.585183</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1681838834196336</v>
+        <v>0.156496420950246</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0257047626561766</v>
+        <v>0.02306726178040667</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1079874196.070102</v>
+        <v>1491150776.938261</v>
       </c>
       <c r="F87" t="n">
-        <v>0.118739745130375</v>
+        <v>0.1590162934631924</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03760767736342333</v>
+        <v>0.03778823148020184</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3277765527.030858</v>
+        <v>3474404708.154031</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1522771807039933</v>
+        <v>0.1327453296965768</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0263294121349699</v>
+        <v>0.03281129001630737</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>41</v>
+      </c>
+      <c r="J88" t="n">
+        <v>296</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,22 +3576,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2842425555.889408</v>
+        <v>3101828999.151007</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1341168666268668</v>
+        <v>0.1102057708592066</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03773612504705422</v>
+        <v>0.03066953825639913</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>295</v>
+      </c>
+      <c r="K89" t="n">
+        <v>76.71885435213206</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1590014207.257776</v>
+        <v>1918335914.014987</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0965813930364154</v>
+        <v>0.08781354439327535</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03570510240055492</v>
+        <v>0.05360213423359119</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1582658597.265228</v>
+        <v>2085582315.528647</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1311765532007013</v>
+        <v>0.1909671629937909</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04092350323642782</v>
+        <v>0.03747007594275356</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2398585250.08889</v>
+        <v>2012837010.364447</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0802754890736794</v>
+        <v>0.08851435369695478</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03021753719111153</v>
+        <v>0.04441416918402594</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3710587679.713649</v>
+        <v>3986017713.132891</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0943814759496166</v>
+        <v>0.1198678028017617</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05478707068478063</v>
+        <v>0.04226305156089456</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>131</v>
+      </c>
+      <c r="J93" t="n">
+        <v>296</v>
+      </c>
+      <c r="K93" t="n">
+        <v>84.17630677844305</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1886635197.235846</v>
+        <v>1556635159.105609</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1074774971710805</v>
+        <v>0.131461674214767</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03521644122909105</v>
+        <v>0.04211002398650514</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3796,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2841810977.225368</v>
+        <v>2777043968.264079</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1251185253672316</v>
+        <v>0.1194673777202588</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0421970530614945</v>
+        <v>0.03929355448497802</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1759200579.278553</v>
+        <v>1476861451.251923</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1193532703308697</v>
+        <v>0.09907088522253496</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03126085257617784</v>
+        <v>0.04621423328142913</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3601055025.926393</v>
+        <v>3677682406.387366</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1579442596339229</v>
+        <v>0.1736197847674609</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02516736985695041</v>
+        <v>0.02869051178348347</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>146</v>
+      </c>
+      <c r="J97" t="n">
+        <v>296</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3233065563.174813</v>
+        <v>3493983417.085435</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1150622593181148</v>
+        <v>0.1196816384229918</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02055725644225552</v>
+        <v>0.02873900716226345</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>72</v>
+      </c>
+      <c r="J98" t="n">
+        <v>296</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2790410342.035579</v>
+        <v>2745434972.635968</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1431171755760406</v>
+        <v>0.1380200692188136</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03334334618122092</v>
+        <v>0.02690997992961206</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4067489023.404995</v>
+        <v>3242979928.031779</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1284414794747025</v>
+        <v>0.1653528706751291</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02521462048813325</v>
+        <v>0.02212181968923015</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>128</v>
+      </c>
+      <c r="J100" t="n">
+        <v>294</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2696626494.183937</v>
+        <v>2291694046.103912</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2161722221759275</v>
+        <v>0.1772766911855438</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04428368245367077</v>
+        <v>0.04463640202033387</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>281</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
